--- a/Assets/StaticData/Excel/Effector.xlsx
+++ b/Assets/StaticData/Excel/Effector.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwaya\Project_G\Assets\StaticData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/58b61c0d2cb9d904/Programming/ProjectG/Project_G/Assets/StaticData/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D20E25-2CB4-440B-80B5-4A51DF648C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{73D20E25-2CB4-440B-80B5-4A51DF648C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDDDA128-5635-4DAA-9274-DD4BF0E1C1CA}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="15" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetPosition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,7 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +129,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF52575C"/>
+      <name val="Roboto"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -164,6 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -179,6 +190,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -459,9 +474,10 @@
     <col min="5" max="5" width="14.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,8 +499,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -506,8 +525,11 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -529,8 +551,11 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -552,8 +577,11 @@
       <c r="G4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -575,8 +603,11 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -598,32 +629,35 @@
       <c r="G6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
     </row>
   </sheetData>
